--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koush\Documents\MRT\Flexsim\FlexSim 2023 Projects\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koush\Documents\MRT\Flexsim\FlexSim 2023 Projects\projet\ga_optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD074C3-0799-4539-BF6F-2B82633315DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4BDF9D-B303-41FC-8D66-B59D50FBA7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B0C9AEB9-B369-421A-A879-18C9E5286E15}"/>
   </bookViews>
@@ -488,6 +488,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,15 +504,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -822,38 +822,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D22C0A0-B815-4EC4-9A7E-7B0070A0B180}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="28" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="28" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -998,8 +998,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <f>14+(F4*(2+3))</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K12" si="2">14+(G4*(2+3))</f>
@@ -1010,23 +1009,22 @@
         <v>164</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M12" si="4">14+(I4*(2+3))</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4:N12" si="5">J4*B4</f>
+        <f t="shared" ref="N4:N12" si="4">J4*B4</f>
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O12" si="6">K4*C4</f>
+        <f t="shared" ref="O4:O12" si="5">K4*C4</f>
         <v>1635</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P12" si="7">L4*D4</f>
+        <f t="shared" ref="P4:P12" si="6">L4*D4</f>
         <v>2460</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" ref="Q4:Q12" si="8">M4*E4</f>
+        <f t="shared" ref="Q4:Q12" si="7">M4*E4</f>
         <v>0</v>
       </c>
     </row>
@@ -1059,8 +1057,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:J12" si="9">14+(F5*(2+3))</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
@@ -1071,23 +1068,23 @@
         <v>184</v>
       </c>
       <c r="M5" s="4">
+        <f t="shared" ref="M4:M12" si="8">14+(I5*(2+3))</f>
+        <v>104</v>
+      </c>
+      <c r="N5" s="3">
         <f t="shared" si="4"/>
-        <v>104</v>
-      </c>
-      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
+        <v>5700</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>5700</v>
-      </c>
-      <c r="P5" s="1">
+        <v>9200</v>
+      </c>
+      <c r="Q5" s="4">
         <f t="shared" si="7"/>
-        <v>9200</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="8"/>
         <v>5200</v>
       </c>
     </row>
@@ -1120,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J5:J12" si="9">14+(F6*(2+3))</f>
         <v>34</v>
       </c>
       <c r="K6" s="1">
@@ -1132,23 +1129,23 @@
         <v>99</v>
       </c>
       <c r="M6" s="4">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="N6" s="3">
         <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
-      <c r="N6" s="3">
+        <v>1496</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="5"/>
-        <v>1496</v>
-      </c>
-      <c r="O6" s="1">
+        <v>7436</v>
+      </c>
+      <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>7436</v>
-      </c>
-      <c r="P6" s="1">
+        <v>4356</v>
+      </c>
+      <c r="Q6" s="4">
         <f t="shared" si="7"/>
-        <v>4356</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" si="8"/>
         <v>2596</v>
       </c>
     </row>
@@ -1193,23 +1190,23 @@
         <v>179</v>
       </c>
       <c r="M7" s="4">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="N7" s="3">
         <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="N7" s="3">
+        <v>1674</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="5"/>
-        <v>1674</v>
-      </c>
-      <c r="O7" s="1">
+        <v>7719</v>
+      </c>
+      <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>7719</v>
-      </c>
-      <c r="P7" s="1">
+        <v>5549</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="7"/>
-        <v>5549</v>
-      </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="8"/>
         <v>3069</v>
       </c>
     </row>
@@ -1242,35 +1239,33 @@
         <v>50</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="M8" s="4">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="N8" s="3">
         <f t="shared" si="4"/>
-        <v>264</v>
-      </c>
-      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
+        <v>5421</v>
+      </c>
+      <c r="Q8" s="4">
         <f t="shared" si="7"/>
-        <v>5421</v>
-      </c>
-      <c r="Q8" s="4">
-        <f t="shared" si="8"/>
         <v>10296</v>
       </c>
     </row>
@@ -1307,31 +1302,30 @@
         <v>189</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="M9" s="4">
+        <f t="shared" si="8"/>
+        <v>134</v>
+      </c>
+      <c r="N9" s="3">
         <f t="shared" si="4"/>
-        <v>134</v>
-      </c>
-      <c r="N9" s="3">
+        <v>5481</v>
+      </c>
+      <c r="O9" s="1">
         <f t="shared" si="5"/>
-        <v>5481</v>
-      </c>
-      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
+        <v>2291</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="7"/>
-        <v>2291</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="8"/>
         <v>3886</v>
       </c>
     </row>
@@ -1364,35 +1358,33 @@
         <v>21</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="4"/>
-        <v>119</v>
-      </c>
-      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
+        <v>4464</v>
+      </c>
+      <c r="P10" s="1">
         <f t="shared" si="6"/>
-        <v>4464</v>
-      </c>
-      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <f t="shared" si="8"/>
         <v>3689</v>
       </c>
     </row>
@@ -1429,31 +1421,30 @@
         <v>169</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
       <c r="M11" s="4">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="N11" s="3">
+        <v>3549</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="5"/>
-        <v>3549</v>
-      </c>
-      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
+        <v>3969</v>
+      </c>
+      <c r="Q11" s="4">
         <f t="shared" si="7"/>
-        <v>3969</v>
-      </c>
-      <c r="Q11" s="4">
-        <f t="shared" si="8"/>
         <v>819</v>
       </c>
     </row>
@@ -1498,23 +1489,23 @@
         <v>224</v>
       </c>
       <c r="M12" s="7">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="N12" s="5">
         <f t="shared" si="4"/>
-        <v>164</v>
-      </c>
-      <c r="N12" s="5">
+        <v>2398</v>
+      </c>
+      <c r="O12" s="6">
         <f t="shared" si="5"/>
-        <v>2398</v>
-      </c>
-      <c r="O12" s="6">
+        <v>4378</v>
+      </c>
+      <c r="P12" s="6">
         <f t="shared" si="6"/>
-        <v>4378</v>
-      </c>
-      <c r="P12" s="6">
+        <v>4928</v>
+      </c>
+      <c r="Q12" s="7">
         <f t="shared" si="7"/>
-        <v>4928</v>
-      </c>
-      <c r="Q12" s="7">
-        <f t="shared" si="8"/>
         <v>3608</v>
       </c>
     </row>
@@ -1538,11 +1529,11 @@
         <f t="shared" si="10"/>
         <v>267</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
       <c r="N13" s="21">
         <f>SUM(N3:N12)</f>
         <v>23670</v>
@@ -1561,11 +1552,11 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="24" t="str">
         <f>TEXT(N13/86400,"[hh]:mm:ss")</f>
         <v>06:34:30</v>
